--- a/Voortgangsdiagrammen.xlsx
+++ b/Voortgangsdiagrammen.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62353B71-5DD3-4CED-8B43-9E2BC17C57C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725964D7-A8C3-436E-8B22-939DBD10E676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{3AF10F8C-8F3D-4B8F-ADD5-0894C676F390}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$AD$2:$AD$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$AE$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$AE$2:$AE$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
   <si>
     <t>Testcases Back-end</t>
   </si>
@@ -121,6 +126,9 @@
   </si>
   <si>
     <t>Bugs back-end</t>
+  </si>
+  <si>
+    <t>Testcases totaal</t>
   </si>
 </sst>
 </file>
@@ -3407,6 +3415,321 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totaal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$AD$2:$AD$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$AD$3:$AD$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$AE$2:$AE$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$AE$3:$AE$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98A1-4620-B7BE-78D33F091F60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3647,6 +3970,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -6363,6 +6726,525 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6923,6 +7805,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafiek 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3A0407-41EB-45C0-99B7-AC8436194F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7223,10 +8141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE44B93-3704-4522-8008-A8D762DF8368}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC39" sqref="AC39"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7235,7 +8153,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -7258,8 +8176,20 @@
       <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -7288,8 +8218,21 @@
         <f>SUM(C2:G2)</f>
         <v>42</v>
       </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="6">
+        <f>H2+H8</f>
+        <v>49</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -7318,18 +8261,31 @@
         <f t="shared" ref="H3:H5" si="4">SUM(C3:G3)</f>
         <v>4</v>
       </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE5" si="5">H3+H9</f>
+        <v>4</v>
+      </c>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" ref="C4:D4" si="5">C44</f>
+        <f t="shared" ref="C4:D4" si="6">C44</f>
         <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E4" s="6">
@@ -7348,18 +8304,31 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:D5" si="6">C45</f>
+        <f t="shared" ref="C5:D5" si="7">C45</f>
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E5" s="6">
@@ -7378,8 +8347,21 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="6">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -7403,7 +8385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>1</v>
@@ -7433,37 +8415,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" ref="C9" si="7">SUM(C50+D50)</f>
+        <f t="shared" ref="C9" si="8">SUM(C50+D50)</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" ref="D9" si="8">E50+F50</f>
+        <f t="shared" ref="D9" si="9">E50+F50</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9:G11" si="9">G50</f>
+        <f t="shared" ref="E9:G11" si="10">G50</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9:H11" si="10">SUM(C9:G9)</f>
+        <f t="shared" ref="H9:H11" si="11">SUM(C9:G9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>11</v>
@@ -7485,15 +8467,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>12</v>
@@ -7515,15 +8497,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -7547,7 +8529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -7577,63 +8559,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:D15" si="11">C28</f>
+        <f t="shared" ref="C15:D15" si="12">C28</f>
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:E17" si="12">E28+F28</f>
+        <f t="shared" ref="E15:E17" si="13">E28+F28</f>
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F17" si="13">G28+H28+I28</f>
+        <f t="shared" ref="F15:F17" si="14">G28+H28+I28</f>
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G17" si="14">J28</f>
+        <f t="shared" ref="G15:G17" si="15">J28</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H17" si="15">SUM(C15:G15)</f>
+        <f t="shared" ref="H15:H17" si="16">SUM(C15:G15)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" ref="C16:D16" si="16">C29</f>
+        <f t="shared" ref="C16:D16" si="17">C29</f>
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="G16" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -7643,27 +8625,27 @@
         <v>29</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:D17" si="17">C30</f>
+        <f t="shared" ref="C17:D17" si="18">C30</f>
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G17" s="6">
+      <c r="F17" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="G17" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7727,27 +8709,27 @@
         <v>27</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:C23" si="18">C35+D35</f>
+        <f t="shared" ref="C21:C23" si="19">C35+D35</f>
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:D23" si="19">E35+F35</f>
+        <f t="shared" ref="D21:D23" si="20">E35+F35</f>
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:G21" si="20">G35</f>
+        <f t="shared" ref="E21:G21" si="21">G35</f>
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21:H23" si="21">SUM(C21:G21)</f>
+        <f t="shared" ref="H21:H23" si="22">SUM(C21:G21)</f>
         <v>2</v>
       </c>
     </row>
@@ -7757,27 +8739,27 @@
         <v>28</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
+      <c r="D22" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="E22" s="6">
-        <f t="shared" ref="E22:G22" si="22">G36</f>
+        <f t="shared" ref="E22:G22" si="23">G36</f>
         <v>0</v>
       </c>
       <c r="F22" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7787,27 +8769,27 @@
         <v>29</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
+      <c r="D23" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:G23" si="23">G37</f>
+        <f t="shared" ref="E23:G23" si="24">G37</f>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -8051,35 +9033,35 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <f>SUM(C43:C45)</f>
+        <f t="shared" ref="C42:J42" si="25">SUM(C43:C45)</f>
         <v>3</v>
       </c>
       <c r="D42">
-        <f>SUM(D43:D45)</f>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="E42">
-        <f>SUM(E43:E45)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="F42">
-        <f>SUM(F43:F45)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G42">
-        <f>SUM(G43:G45)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="H42">
-        <f>SUM(H43:H45)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I42">
-        <f>SUM(I43:I45)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="J42">
-        <f>SUM(J43:J45)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -8188,31 +9170,31 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <f>SUM(C50:C52)</f>
+        <f t="shared" ref="C49:I49" si="26">SUM(C50:C52)</f>
         <v>1</v>
       </c>
       <c r="D49">
-        <f>SUM(D50:D52)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E49">
-        <f>SUM(E50:E52)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F49">
-        <f>SUM(F50:F52)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="G49">
-        <f>SUM(G50:G52)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H49">
-        <f>SUM(H50:H52)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I49">
-        <f>SUM(I50:I52)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>

--- a/Voortgangsdiagrammen.xlsx
+++ b/Voortgangsdiagrammen.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725964D7-A8C3-436E-8B22-939DBD10E676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241FBF86-FDFA-4D4A-BD62-FACEE35E0FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{3AF10F8C-8F3D-4B8F-ADD5-0894C676F390}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$AD$2:$AD$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$AE$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$AE$2:$AE$5</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
   <si>
     <t>Testcases Back-end</t>
   </si>
@@ -129,6 +124,12 @@
   </si>
   <si>
     <t>Testcases totaal</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Auto's</t>
   </si>
 </sst>
 </file>
@@ -506,7 +507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$H$3:$H$5</c:f>
+              <c:f>Blad1!$I$3:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -517,7 +518,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,16 +864,16 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$H$8:$H$11</c15:sqref>
+                    <c15:sqref>Blad1!$I$8:$I$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$H$9:$H$11</c:f>
+              <c:f>Blad1!$I$9:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1093,13 +1094,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$1:$H$1</c15:sqref>
+                    <c15:sqref>Blad1!$C$1:$I$1</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$1:$G$1</c:f>
+              <c:f>Blad1!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Betalingen</c:v>
                 </c:pt>
@@ -1114,6 +1115,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Navigatie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto's</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1123,14 +1127,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$3:$H$3</c15:sqref>
+                    <c15:sqref>Blad1!$C$3:$I$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$3:$G$3</c:f>
+              <c:f>Blad1!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1144,6 +1148,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1184,13 +1191,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$1:$H$1</c15:sqref>
+                    <c15:sqref>Blad1!$C$1:$I$1</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$1:$G$1</c:f>
+              <c:f>Blad1!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Betalingen</c:v>
                 </c:pt>
@@ -1205,6 +1212,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Navigatie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto's</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1214,14 +1224,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$4:$H$4</c15:sqref>
+                    <c15:sqref>Blad1!$C$4:$I$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$4:$G$4</c:f>
+              <c:f>Blad1!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1235,6 +1245,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1275,13 +1288,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$1:$H$1</c15:sqref>
+                    <c15:sqref>Blad1!$C$1:$I$1</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$1:$G$1</c:f>
+              <c:f>Blad1!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Betalingen</c:v>
                 </c:pt>
@@ -1296,6 +1309,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Navigatie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto's</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1305,14 +1321,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$5:$H$5</c15:sqref>
+                    <c15:sqref>Blad1!$C$5:$I$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$5:$G$5</c:f>
+              <c:f>Blad1!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1326,6 +1342,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2263,13 +2282,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$13:$H$13</c15:sqref>
+                    <c15:sqref>Blad1!$C$13:$I$13</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$13:$G$13</c:f>
+              <c:f>Blad1!$C$13:$H$13</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Betalingen</c:v>
                 </c:pt>
@@ -2284,6 +2303,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Navigatie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto's</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2293,19 +2315,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$15:$H$15</c15:sqref>
+                    <c15:sqref>Blad1!$C$15:$I$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$15:$G$15</c:f>
+              <c:f>Blad1!$C$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -2314,6 +2336,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2354,13 +2379,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$13:$H$13</c15:sqref>
+                    <c15:sqref>Blad1!$C$13:$I$13</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$13:$G$13</c:f>
+              <c:f>Blad1!$C$13:$H$13</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Betalingen</c:v>
                 </c:pt>
@@ -2375,6 +2400,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Navigatie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto's</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2384,14 +2412,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$16:$H$16</c15:sqref>
+                    <c15:sqref>Blad1!$C$16:$I$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$16:$G$16</c:f>
+              <c:f>Blad1!$C$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2405,6 +2433,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2445,13 +2476,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$13:$H$13</c15:sqref>
+                    <c15:sqref>Blad1!$C$13:$I$13</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$13:$G$13</c:f>
+              <c:f>Blad1!$C$13:$H$13</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Betalingen</c:v>
                 </c:pt>
@@ -2466,6 +2497,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Navigatie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto's</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2475,14 +2509,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$C$17:$H$17</c15:sqref>
+                    <c15:sqref>Blad1!$C$17:$I$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$C$17:$G$17</c:f>
+              <c:f>Blad1!$C$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2497,6 +2531,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,15 +2594,15 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Blad1!$C$13:$H$13</c15:sqref>
+                          <c15:sqref>Blad1!$C$13:$I$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$C$13:$G$13</c15:sqref>
+                          <c15:sqref>Blad1!$C$13:$H$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>Betalingen</c:v>
                       </c:pt>
@@ -2581,6 +2618,9 @@
                       <c:pt idx="4">
                         <c:v>Navigatie</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Auto's</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -2589,30 +2629,33 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Blad1!$C$14:$H$14</c15:sqref>
+                          <c15:sqref>Blad1!$C$14:$I$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$C$14:$G$14</c15:sqref>
+                          <c15:sqref>Blad1!$C$14:$H$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2946,7 +2989,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3207,7 +3250,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
@@ -3216,7 +3259,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3469,7 +3512,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$AE$1</c:f>
+              <c:f>Blad1!$AF$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3492,6 +3535,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1F79-444F-8D8D-BF2120126BFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3507,6 +3555,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1F79-444F-8D8D-BF2120126BFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3522,6 +3575,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1F79-444F-8D8D-BF2120126BFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3583,11 +3641,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$AD$2:$AD$5</c15:sqref>
+                    <c15:sqref>Blad1!$AE$2:$AE$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$AD$3:$AD$5</c:f>
+              <c:f>Blad1!$AE$3:$AE$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3607,22 +3665,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Blad1!$AE$2:$AE$5</c15:sqref>
+                    <c15:sqref>Blad1!$AF$2:$AF$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Blad1!$AE$3:$AE$5</c:f>
+              <c:f>Blad1!$AF$3:$AF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8141,10 +8199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE44B93-3704-4522-8008-A8D762DF8368}">
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8153,7 +8211,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -8174,22 +8232,25 @@
         <v>20</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -8215,24 +8276,28 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <f>SUM(C2:G2)</f>
+        <f>K42</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <f>SUM(C2:H2)</f>
         <v>42</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="6">
-        <f>H2+H8</f>
+      <c r="AF2" s="6">
+        <f>I2+I8</f>
         <v>49</v>
       </c>
-      <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -8254,28 +8319,32 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G5" si="3">J43</f>
+        <f t="shared" ref="G3:H5" si="3">J43</f>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H5" si="4">SUM(C3:G3)</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I5" si="4">SUM(C3:H3)</f>
         <v>4</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="6">
-        <f t="shared" ref="AE3:AE5" si="5">H3+H9</f>
-        <v>4</v>
-      </c>
-      <c r="AF3" s="6"/>
+      <c r="AF3" s="6">
+        <f t="shared" ref="AF3:AF5" si="5">I3+I9</f>
+        <v>5</v>
+      </c>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -8301,24 +8370,28 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AF4" s="6">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
@@ -8344,24 +8417,28 @@
         <v>1</v>
       </c>
       <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AF5" s="6">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="AF5" s="6"/>
+        <v>36</v>
+      </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -8382,10 +8459,13 @@
         <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>1</v>
@@ -8411,11 +8491,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="6">
-        <f>SUM(C8:G8)</f>
+        <f>J49</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f>SUM(C8:H8)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>10</v>
@@ -8429,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9:G11" si="10">G50</f>
+        <f t="shared" ref="E9:H11" si="10">G50</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
@@ -8441,11 +8525,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9:H11" si="11">SUM(C9:G9)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" ref="I9:I11" si="11">SUM(C9:H9)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>11</v>
@@ -8471,11 +8559,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>12</v>
@@ -8501,11 +8593,15 @@
         <v>1</v>
       </c>
       <c r="H11" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -8526,100 +8622,115 @@
         <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <f>C27</f>
+        <f>SUM(C15:C17)</f>
         <v>0</v>
       </c>
       <c r="D14" s="6">
-        <f>D27</f>
+        <f t="shared" ref="D14:I14" si="12">SUM(D15:D17)</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E14" s="6">
-        <f>E27+F27</f>
+      <c r="G14" s="6">
+        <f>SUM(G15:G17)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="6">
-        <f>G27+H27+I27</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <f>J27</f>
-        <v>0</v>
-      </c>
       <c r="H14" s="6">
-        <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <f>SUM(H15:H17)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <f>SUM(I15:I17)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:D15" si="12">C28</f>
+        <f t="shared" ref="C15:D15" si="13">C28</f>
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" ref="E15:E17" si="14">E28+F28</f>
         <v>1</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" ref="E15:E17" si="13">E28+F28</f>
-        <v>1</v>
-      </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F17" si="14">G28+H28+I28</f>
+        <f t="shared" ref="F15:F17" si="15">G28+H28+I28</f>
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G17" si="15">J28</f>
+        <f>J28</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H17" si="16">SUM(C15:G15)</f>
-        <v>2</v>
+        <f>K28</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f>SUM(C15:H15)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" ref="C16:D16" si="17">C29</f>
+        <f t="shared" ref="C16:D16" si="16">C29</f>
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16:H17" si="17">J29</f>
+        <v>0</v>
+      </c>
       <c r="H16" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f>SUM(C16:H16)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
@@ -8633,23 +8744,27 @@
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G17" s="6">
+      <c r="F17" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="G17" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <f>SUM(C17:H17)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -8670,130 +8785,149 @@
         <v>20</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <f>C34+D34</f>
+        <f>SUM(C21:C23)</f>
         <v>0</v>
       </c>
       <c r="D20" s="6">
-        <f>E34+F34</f>
+        <f t="shared" ref="D20:I20" si="19">SUM(D21:D23)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E20" s="6">
-        <f>G34</f>
+      <c r="F20" s="6">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F20" s="6">
-        <f>H34</f>
+      <c r="G20" s="6">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ref="H20" si="20">SUM(H21:H23)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="6">
-        <f>I34</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <f>SUM(C20:G20)</f>
-        <v>0</v>
+      <c r="I20" s="6">
+        <f>SUM(I21:I23)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:C23" si="19">C35+D35</f>
+        <f t="shared" ref="C21:C23" si="21">C35+D35</f>
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:D23" si="20">E35+F35</f>
+        <f t="shared" ref="D21:D23" si="22">E35+F35</f>
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:G21" si="21">G35</f>
+        <f t="shared" ref="E21:H21" si="23">G35</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f>SUM(C21:H21)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" ref="H21:H23" si="22">SUM(C21:G21)</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" ref="E22:G22" si="23">G36</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:H22" si="24">G36</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f>SUM(C22:H22)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:G23" si="24">G37</f>
+        <f t="shared" ref="E23:H23" si="25">G37</f>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f>SUM(C23:H23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
@@ -8821,8 +8955,11 @@
       <c r="J25" t="s">
         <v>20</v>
       </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -8850,24 +8987,27 @@
       <c r="J26" t="s">
         <v>9</v>
       </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -8881,12 +9021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -8911,8 +9054,11 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -8937,13 +9083,16 @@
       <c r="I33" t="s">
         <v>8</v>
       </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -8952,18 +9101,15 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
     </row>
-    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -8973,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -8998,8 +9144,11 @@
       <c r="J40" t="s">
         <v>20</v>
       </c>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>13</v>
       </c>
@@ -9027,45 +9176,48 @@
       <c r="J41" t="s">
         <v>9</v>
       </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:J42" si="25">SUM(C43:C45)</f>
+        <f t="shared" ref="C42:J42" si="26">SUM(C43:C45)</f>
         <v>3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="E42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="F42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="H42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="J42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -9076,7 +9228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -9087,7 +9239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>12</v>
       </c>
@@ -9115,8 +9267,11 @@
       <c r="J45">
         <v>1</v>
       </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -9138,8 +9293,11 @@
       <c r="I47" t="s">
         <v>20</v>
       </c>
+      <c r="J47" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -9164,48 +9322,54 @@
       <c r="I48" t="s">
         <v>8</v>
       </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:I49" si="26">SUM(C50:C52)</f>
+        <f t="shared" ref="C49:I49" si="27">SUM(C50:C52)</f>
         <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
+      <c r="J50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>11</v>
       </c>
@@ -9215,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>12</v>
       </c>

--- a/Voortgangsdiagrammen.xlsx
+++ b/Voortgangsdiagrammen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241FBF86-FDFA-4D4A-BD62-FACEE35E0FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF108D-DE73-449F-8F5A-83E7059073D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{3AF10F8C-8F3D-4B8F-ADD5-0894C676F390}"/>
   </bookViews>
@@ -8201,8 +8201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE44B93-3704-4522-8008-A8D762DF8368}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8276,12 +8276,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <f>K42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6">
         <f>SUM(C2:H2)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="6"/>
       <c r="AE2" s="7" t="s">
@@ -8289,7 +8288,7 @@
       </c>
       <c r="AF2" s="6">
         <f>I2+I8</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
@@ -8491,12 +8490,11 @@
         <v>1</v>
       </c>
       <c r="H8" s="6">
-        <f>J49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="6">
         <f>SUM(C8:H8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -8638,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" ref="D14:I14" si="12">SUM(D15:D17)</f>
+        <f t="shared" ref="D14:F14" si="12">SUM(D15:D17)</f>
         <v>6</v>
       </c>
       <c r="E14" s="6">
@@ -8801,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" ref="D20:I20" si="19">SUM(D21:D23)</f>
+        <f t="shared" ref="D20:G20" si="19">SUM(D21:D23)</f>
         <v>1</v>
       </c>
       <c r="E20" s="6">
